--- a/Weapon Chart.xlsx
+++ b/Weapon Chart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Rifles:</t>
   </si>
@@ -27,101 +27,71 @@
     <t>Swords:</t>
   </si>
   <si>
-    <t>Plasma rifle Mark 1</t>
-  </si>
-  <si>
-    <t>Attack: +23</t>
-  </si>
-  <si>
-    <t>Plasma rifle Mark 2</t>
-  </si>
-  <si>
-    <t>Attack: +38</t>
-  </si>
-  <si>
     <t>Makeshift spear</t>
   </si>
   <si>
-    <t>Attack: +26</t>
-  </si>
-  <si>
-    <t>Shock sword</t>
-  </si>
-  <si>
-    <t>Attack: +18 agility: +2</t>
-  </si>
-  <si>
-    <t>Gives shock damage and is effective against machines</t>
-  </si>
-  <si>
-    <t>Sallow sword</t>
-  </si>
-  <si>
-    <t>Attack: +16 luck: +4</t>
-  </si>
-  <si>
-    <t>Gives poison damage and is effective against humans</t>
-  </si>
-  <si>
-    <t>Atma sword</t>
-  </si>
-  <si>
-    <t>Attack: +34</t>
-  </si>
-  <si>
-    <t>Has chance to activate special attack wasteland fury</t>
-  </si>
-  <si>
     <t>Laser cannon:</t>
   </si>
   <si>
-    <t>Laser shot</t>
-  </si>
-  <si>
-    <t>Gives fire damage</t>
-  </si>
-  <si>
-    <t>Laser cannon Mark 2</t>
-  </si>
-  <si>
-    <t>Attack: +18 EP: -4</t>
-  </si>
-  <si>
-    <t>Attack: +20 EP: -2</t>
-  </si>
-  <si>
-    <t>Laser cannon Mark 3</t>
-  </si>
-  <si>
-    <t>Attack: +33 EP: -2</t>
-  </si>
-  <si>
     <t>Titanium spear</t>
   </si>
   <si>
-    <t>Attack: +32</t>
-  </si>
-  <si>
-    <t>Chainsaws:</t>
-  </si>
-  <si>
-    <t>Drone saw</t>
-  </si>
-  <si>
-    <t>Ole Betsy</t>
-  </si>
-  <si>
-    <t>Attack: +53</t>
-  </si>
-  <si>
-    <t>Attack: +50 only drones</t>
+    <t>Widow Maker</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Scrap Rifle</t>
+  </si>
+  <si>
+    <t>Scrap Sword</t>
+  </si>
+  <si>
+    <t>Iron Sword</t>
+  </si>
+  <si>
+    <t>Plasma:</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical </t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Fireshot:</t>
+  </si>
+  <si>
+    <t>Fireblast:</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Learn skill emp_maximize</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Learn Airloft Caeser Slam Overdrive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +102,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,9 +135,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,169 +449,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>200</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="3">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D4" s="5">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K12" s="5"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K13" s="5"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="5"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="K15" s="5"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5">
+        <v>13</v>
+      </c>
+      <c r="J23">
+        <v>200</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5">
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>1000</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F32" t="s">
+      <c r="C32" s="5">
+        <v>30</v>
+      </c>
+      <c r="D32" s="5">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32">
+        <v>200</v>
+      </c>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="5">
+        <v>35</v>
+      </c>
+      <c r="D33" s="5">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>-2</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33">
+        <v>1500</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="I46" s="1"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>

--- a/Weapon Chart.xlsx
+++ b/Weapon Chart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Rifles:</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Learn Airloft Caeser Slam Overdrive</t>
+  </si>
+  <si>
+    <t>Scorpion Rifle</t>
   </si>
 </sst>
 </file>
@@ -449,13 +452,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C1" s="4" t="s">
@@ -484,7 +490,9 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -496,10 +504,11 @@
       <c r="D3" s="5">
         <v>13</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="5">
         <v>200</v>
       </c>
       <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -514,158 +523,409 @@
       <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>0</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" t="s">
+      <c r="L4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="M12" s="1"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="M14" s="1"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="M15" s="1"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>25</v>
       </c>
       <c r="D23" s="5">
         <v>13</v>
       </c>
-      <c r="J23">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5">
         <v>200</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>30</v>
       </c>
       <c r="D24" s="5">
         <v>13</v>
       </c>
-      <c r="J24">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5">
         <v>1000</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="5"/>
       <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
       <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
       <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -675,13 +935,21 @@
       <c r="D32" s="5">
         <v>7</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="5">
         <v>200</v>
       </c>
       <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -691,39 +959,101 @@
       <c r="D33" s="5">
         <v>7</v>
       </c>
-      <c r="F33">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
         <v>-2</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="5">
         <v>1500</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" t="s">
+      <c r="L33" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="F44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="F45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="F46" s="1"/>
       <c r="I46" s="1"/>
